--- a/biology/Médecine/Hirslanden/Hirslanden.xlsx
+++ b/biology/Médecine/Hirslanden/Hirslanden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Hirslanden est le plus grand groupe suisse de cliniques privées. Depuis le 1er juillet 2017, le Groupe de cliniques privées Hirslanden compte 17 cliniques dans 11 cantons. Le Groupe compte quelque 2 000 médecins accrédités, ainsi que 9 920 collaborateurs, dont 484 médecins employés[1],[2],[3].
-Au cours de l'exercice 2016/17, le chiffre d'affaires enregistré par Hirslanden était 1 704 millions de francs suisses. La répartition des patients pour cet exercice était comme suit : 44,8 % de patients non assurés, 31,2 % de patients avec une assurance semi-privée et 24,0 % de patients avec une assurance privée. Le Groupe de cliniques privées Hirslanden totalise 13 salles d'urgence[4].
-Le Groupe de cliniques privées Hirslanden a été formé en 1990 à la suite de la fusion de plusieurs cliniques privées[5]. Le Groupe de cliniques privées Hirslanden est racheté par le groupe hospitalier sud-africain Mediclinic International Ltd en 2007.
-Hirslanden figure parmi les plus gros groupes de cliniques privées d'Europe avec plus de 100 000 patients stationnaires pour la période 2016/17[6].
+Hirslanden est le plus grand groupe suisse de cliniques privées. Depuis le 1er juillet 2017, le Groupe de cliniques privées Hirslanden compte 17 cliniques dans 11 cantons. Le Groupe compte quelque 2 000 médecins accrédités, ainsi que 9 920 collaborateurs, dont 484 médecins employés.
+Au cours de l'exercice 2016/17, le chiffre d'affaires enregistré par Hirslanden était 1 704 millions de francs suisses. La répartition des patients pour cet exercice était comme suit : 44,8 % de patients non assurés, 31,2 % de patients avec une assurance semi-privée et 24,0 % de patients avec une assurance privée. Le Groupe de cliniques privées Hirslanden totalise 13 salles d'urgence.
+Le Groupe de cliniques privées Hirslanden a été formé en 1990 à la suite de la fusion de plusieurs cliniques privées. Le Groupe de cliniques privées Hirslanden est racheté par le groupe hospitalier sud-africain Mediclinic International Ltd en 2007.
+Hirslanden figure parmi les plus gros groupes de cliniques privées d'Europe avec plus de 100 000 patients stationnaires pour la période 2016/17.
 </t>
         </is>
       </c>
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -541,11 +555,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de Hirslanden provient de la Klinik Hirslanden à Zurich ouverte en 1932 et qui était à cette époque située dans le Quartier Hirslanden (aujourd'hui Weinegg). Le groupe de cliniques privées Hirslanden a vu le jour début juillet 1990 par la fusion de la Klinik Hirslanden avec les quatre hôpitaux - appartenant alors au groupe AMI (American Medical International) - de Klinik Aarau (ouvert en 1988), la Klinik Beau-Site à Berne (ouvert en 1945), Clinique Cecil à Lausanne (ouvert en 1931) et Klinik Im Park à Zurich (ouvert en 1986)[7],[8]. L'actionnaire majoritaire du groupe de cliniques privées nouvellement formé était UBS.
-Dans les années suivantes, le groupe de cliniques privées Hirslanden a acquis de nombreuses autres cliniques privées : la Klinik Permanence à Berne en 1997 (ouverte en 1978), la Clinique Bois-Cerf à Lausanne en 1998, la Klinik Belair à Schaffhouse et la AndreasKlinik à Cham en 2001, la Klinik Am Rosenberg à Heiden, la Klinik Birshof à Bâle et Salem-Spital à Berne en 2002, la Klinik St. Anna à Lucerne en 2005, la Klinik Stephanshorn à St. Gallen 2010, la Hirslanden Klinik Meggen et Clinique La Colline à Genève en 2014 et la Clinique des Tilleuls à Bienne en 2017[9],[10].
-Au sein des actionnaires du groupe de cliniques privées Hirslanden, deux changements majeurs sont à noter jusqu'à présent : en 2002, le groupe d'investissement britannique BC Partners Funds a repris l'entreprise à UBS[11]. Le groupe de cliniques privées Hirslanden a été cédé à la sud-africaine Mediclinic Corporation en 2007[12],[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de Hirslanden provient de la Klinik Hirslanden à Zurich ouverte en 1932 et qui était à cette époque située dans le Quartier Hirslanden (aujourd'hui Weinegg). Le groupe de cliniques privées Hirslanden a vu le jour début juillet 1990 par la fusion de la Klinik Hirslanden avec les quatre hôpitaux - appartenant alors au groupe AMI (American Medical International) - de Klinik Aarau (ouvert en 1988), la Klinik Beau-Site à Berne (ouvert en 1945), Clinique Cecil à Lausanne (ouvert en 1931) et Klinik Im Park à Zurich (ouvert en 1986),. L'actionnaire majoritaire du groupe de cliniques privées nouvellement formé était UBS.
+Dans les années suivantes, le groupe de cliniques privées Hirslanden a acquis de nombreuses autres cliniques privées : la Klinik Permanence à Berne en 1997 (ouverte en 1978), la Clinique Bois-Cerf à Lausanne en 1998, la Klinik Belair à Schaffhouse et la AndreasKlinik à Cham en 2001, la Klinik Am Rosenberg à Heiden, la Klinik Birshof à Bâle et Salem-Spital à Berne en 2002, la Klinik St. Anna à Lucerne en 2005, la Klinik Stephanshorn à St. Gallen 2010, la Hirslanden Klinik Meggen et Clinique La Colline à Genève en 2014 et la Clinique des Tilleuls à Bienne en 2017,.
+Au sein des actionnaires du groupe de cliniques privées Hirslanden, deux changements majeurs sont à noter jusqu'à présent : en 2002, le groupe d'investissement britannique BC Partners Funds a repris l'entreprise à UBS. Le groupe de cliniques privées Hirslanden a été cédé à la sud-africaine Mediclinic Corporation en 2007,.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Site officiel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Groupe de cliniques privées Hirslanden</t>
         </is>
